--- a/JustChat实施方案.xlsx
+++ b/JustChat实施方案.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yijia\Documents\tencent files\406787679\filerecv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS Documents\Visual Studio 2010\Projects\JustChat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE39C7B-86D0-4AE2-AF26-541F3400A8FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDEA648-1AE8-45F2-8563-903DB3846EA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4530" yWindow="885" windowWidth="21570" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>阶段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,18 +154,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>概要设计PPT, 概要设计文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 了解QUdpSocket,UDP通信模块创建一个类
 2. 实现点对点聊天, 组播聊天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 了解QThread,单例模式创建一个单线程,消息队列形式,全局写日志操作
-涉及到日志级别0~6来进行记录
-2. 日志模块创建一个类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -205,6 +195,31 @@
       </rPr>
       <t>负责详细设计PPT的讲演(详细讲解情感分析模块)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本实现C++模块调用python, 了解了在使用机器学习方法下如何进行情感分析, 使用bert如何进行情感分析, 初步设计PPT</t>
+  </si>
+  <si>
+    <t>窗口都实现得比较美观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口都实现得比较美观, 概要设计PPT, 概要设计文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 了解QThread,单例模式创建一个单线程,消息队列形式,全局写日志操作
+涉及到日志级别0~3来进行记录
+2. 日志模块创建一个类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本实现日志线程, 且功能相对完善, 可以按照[DEBUG,INFO,WARN,FATAL]四个级别来记录日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本完成所有功能,模块实现的独立性较高,易于扩展,且考虑了文件传输</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -265,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,6 +294,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -574,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -609,10 +630,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -622,15 +643,15 @@
         <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
@@ -645,8 +666,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
@@ -661,8 +682,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="54" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
@@ -677,10 +698,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -689,24 +710,32 @@
       <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
@@ -714,99 +743,117 @@
         <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="54" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="E9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>27</v>
+      <c r="B10" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="54" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="72" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="54" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="A14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/JustChat实施方案.xlsx
+++ b/JustChat实施方案.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS Documents\Visual Studio 2010\Projects\JustChat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDEA648-1AE8-45F2-8563-903DB3846EA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3D1F6F-7EA9-4DB7-9AB5-54B0C9777DBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="885" windowWidth="21570" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7230" yWindow="330" windowWidth="21570" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>阶段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,10 @@
   </si>
   <si>
     <t>基本完成所有功能,模块实现的独立性较高,易于扩展,且考虑了文件传输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本完成Json文件读写功能,且对于常用的Qt类有自己的理解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -291,7 +295,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -300,6 +303,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -596,7 +602,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -639,7 +645,7 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -655,7 +661,7 @@
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -671,7 +677,7 @@
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -687,7 +693,7 @@
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -707,13 +713,13 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -723,13 +729,13 @@
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -739,13 +745,13 @@
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -755,13 +761,13 @@
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -781,7 +787,7 @@
       <c r="E10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -797,7 +803,7 @@
       <c r="E11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -813,11 +819,11 @@
       <c r="E12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F12" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="11"/>
       <c r="C13" s="2" t="s">
@@ -826,8 +832,12 @@
       <c r="D13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
+      <c r="E13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">

--- a/JustChat实施方案.xlsx
+++ b/JustChat实施方案.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yijia\Documents\tencent files\406787679\filerecv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\visual_studio_2015Projects\JC\JustChat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE39C7B-86D0-4AE2-AF26-541F3400A8FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E620C320-F13A-44B2-AD59-D1BA81A4B0B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="5685" windowWidth="18120" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,12 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 了解QThread,单例模式创建一个单线程,消息队列形式,全局写日志操作
-涉及到日志级别0~6来进行记录
-2. 日志模块创建一个类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 基本熟悉项目中需要用到的Qt控件
 2. 按模块实现分工, 每个人对自己所负责的模块应做到了如指掌
 3. 这一阶段应开始进行详细设计的内容
@@ -205,6 +199,12 @@
       </rPr>
       <t>负责详细设计PPT的讲演(详细讲解情感分析模块)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 了解QThread,单例模式创建一个单线程,消息队列形式,全局写日志操作
+涉及到日志级别0~4来进行记录
+2. 日志模块创建一个类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -622,7 +622,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -735,13 +735,13 @@
         <v>23</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
@@ -753,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
@@ -777,14 +777,14 @@
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>

--- a/JustChat实施方案.xlsx
+++ b/JustChat实施方案.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS Documents\Visual Studio 2010\Projects\JustChat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3D1F6F-7EA9-4DB7-9AB5-54B0C9777DBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65280204-CE19-4570-87DE-1E68368416B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="330" windowWidth="21570" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="2520" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>阶段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,44 @@
   </si>
   <si>
     <t>基本完成Json文件读写功能,且对于常用的Qt类有自己的理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四阶段 编码实现阶段
+时间节点: 12.16-12.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五阶段 测试完善阶段
+时间节点: 12.20-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 继续完善情感分析模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 继续完善组聊，话题聊天功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 了解如何编写测试报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 了解如何编写用户手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 实现所有基本功能(广场,组聊,话题聊天)
+2. 融入情感分析模块,并可以进行分析
+3. 了解qss文件如何使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 测试并完善软件, 排查功能性bug
+2. 使用qss, 进行软件界面美化
+3. 编写测试报告, 用户手册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -306,6 +344,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -599,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -636,10 +680,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -656,8 +700,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
@@ -672,8 +716,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
@@ -688,8 +732,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="54" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
@@ -704,10 +748,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -724,8 +768,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
@@ -740,8 +784,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
@@ -756,8 +800,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
@@ -772,10 +816,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -792,8 +836,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="72" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
@@ -808,8 +852,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
@@ -824,8 +868,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
@@ -839,41 +883,141 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A14:F16"/>
+  <mergeCells count="11">
+    <mergeCell ref="A22:F24"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JustChat实施方案.xlsx
+++ b/JustChat实施方案.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS Documents\Visual Studio 2010\Projects\JustChat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65280204-CE19-4570-87DE-1E68368416B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961DC33C-4B5C-4085-B201-EBA924D14008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="2520" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
   <si>
     <t>阶段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +262,38 @@
     <t>1. 测试并完善软件, 排查功能性bug
 2. 使用qss, 进行软件界面美化
 3. 编写测试报告, 用户手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情感分析模块预测准确率达到90%, 但预测耗时需要缩短</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组聊功能已经完善, 话题聊天已经融入情感分析, 可以针对某些话题进行赞同/不赞同预测分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写了测试PPT并进行了讲演, 达到了不错的效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本写好了一个用户手册的框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.编写完测试报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.编写完总结报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.继续完善软件, 对软件进行qss美化设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.继续完善情感分析模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -322,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -350,6 +382,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -645,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -680,10 +715,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -700,8 +735,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
@@ -716,8 +751,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
@@ -732,8 +767,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="54" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
@@ -748,10 +783,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -768,8 +803,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
@@ -784,8 +819,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
@@ -800,8 +835,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
@@ -816,10 +851,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -836,8 +871,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="72" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
@@ -852,8 +887,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
@@ -868,8 +903,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
@@ -884,10 +919,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -896,114 +931,138 @@
       <c r="D14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
+      <c r="E14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
+      <c r="E15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="54" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="8"/>
+      <c r="E16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="8"/>
+      <c r="E17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="E18" s="9"/>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="E20" s="9"/>
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="E21" s="9"/>
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/JustChat实施方案.xlsx
+++ b/JustChat实施方案.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS Documents\Visual Studio 2010\Projects\JustChat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961DC33C-4B5C-4085-B201-EBA924D14008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375F464B-9B0E-4709-9018-DD197258962A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1245" yWindow="615" windowWidth="21600" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
   <si>
     <t>阶段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,11 +232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第五阶段 测试完善阶段
-时间节点: 12.20-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 继续完善情感分析模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,6 +289,15 @@
   </si>
   <si>
     <t>1.继续完善情感分析模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【未完待续...】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五阶段 测试完善阶段
+时间节点: 12.20-未来的某一天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -354,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -385,6 +389,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -680,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -715,10 +722,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -735,8 +742,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
@@ -751,8 +758,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
@@ -767,8 +774,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="54" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
@@ -783,10 +790,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -803,8 +810,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
@@ -835,8 +842,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
@@ -851,10 +858,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -871,8 +878,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="72" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
@@ -903,8 +910,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
@@ -919,150 +926,158 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>43</v>
+      <c r="B14" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="54" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>44</v>
+      <c r="A18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="9"/>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="9"/>
+        <v>49</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">
